--- a/revised/THESIS/biophysical context.xlsx
+++ b/revised/THESIS/biophysical context.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t>Mammy Johnsons River at Pikes Crossing</t>
   </si>
@@ -114,6 +117,281 @@
   </si>
   <si>
     <t>Mean annual temperature (oC)</t>
+  </si>
+  <si>
+    <t>Tall open canopy, abundant shrubs and groundcover</t>
+  </si>
+  <si>
+    <t>Tall open canopy, abundant subcanopy and groundcover</t>
+  </si>
+  <si>
+    <t>Closed canopy, abundant subcanopy and limited groundcover</t>
+  </si>
+  <si>
+    <t>Open forest, dense fern groundcover</t>
+  </si>
+  <si>
+    <t>Open forest, abundant shrub layer</t>
+  </si>
+  <si>
+    <t>Riparian scrub with low emergent Eucalypts</t>
+  </si>
+  <si>
+    <t>Open forest, abundant shrubs and grassy areas</t>
+  </si>
+  <si>
+    <t>Closed forest, abundant shrub layer with sparse groundcover</t>
+  </si>
+  <si>
+    <t>Vine thickets with emergent Eucalypts</t>
+  </si>
+  <si>
+    <t>Dominant species</t>
+  </si>
+  <si>
+    <t>Acmena smithii, Ceratopetalum apetalum, Tristaniopsis laurina</t>
+  </si>
+  <si>
+    <t>Eucalyptus viminalis, Pomaderris aspera, Leptospermum brevipes, Calochlaena dubia</t>
+  </si>
+  <si>
+    <t>Casuarina cunninghamiana, Eucalyptus cypellocarpa, Acacia floribunda, Melicytus dentatus, Microlaena stipoides</t>
+  </si>
+  <si>
+    <t>Open forest, shrub and groundcover layers dominant, scattered emergents</t>
+  </si>
+  <si>
+    <t>Casuarina cunninghamiana, Eucalyptus elata, Tristaniopsis laurina, Acacia floribunda, Backhousia myrtifolia, Microlaena stipoides</t>
+  </si>
+  <si>
+    <t>Tristaniopsis laurina, Doodia aspera</t>
+  </si>
+  <si>
+    <t>Closed low canopy, fern dominated groundcover layer</t>
+  </si>
+  <si>
+    <t>Casuarina cunninghamiana, Acacia floribunda, Leptospermum brevipes</t>
+  </si>
+  <si>
+    <t>Open woodland with some emergent Eucalypts</t>
+  </si>
+  <si>
+    <t>Eucalyptus rubida, Acacia dealbata, Rubus fruticosus</t>
+  </si>
+  <si>
+    <t>Eucalyptus camphora subsp. humeana, Acacia melanoxylon, Rubus fruticosus, Blechnum nudum</t>
+  </si>
+  <si>
+    <t>Eucalyptus radiata, Acacia dealbata, Lomatia myricoides, Poa labillardierei var labillardierei</t>
+  </si>
+  <si>
+    <t>Eucalyptus camphora subsp. camphora, Eucalyptus stellulata, Coprosma quadrifida, Bursaria spinosa, Leptospermum brevipes</t>
+  </si>
+  <si>
+    <t>Open grassy forest</t>
+  </si>
+  <si>
+    <t>Casuarina cunninghamiana, Eucalyptus ampifolia, Lomandra longifolia, Microlaena stipoides</t>
+  </si>
+  <si>
+    <t>Casuarina cunninghamiana, Eucalyptus tereticornis, Melicytus dentatus, Lomandra hystrix, Pennisetum clandestinum</t>
+  </si>
+  <si>
+    <t>Closed forest</t>
+  </si>
+  <si>
+    <t>Lophostemon suaveolens, Alphitonia excelsa, Casuarina glauca, Calochlaena dubia, Oplismenus imbecillis</t>
+  </si>
+  <si>
+    <t>Eucalyptus radiata, Eucalyptus viminalis, Acacia dealbata, Acacia pravissima, Hovea asperifolia subsp. asperifolia, Leptospermum brevipes</t>
+  </si>
+  <si>
+    <t>Eucalyptus tereticornis, Eucalyptus resinifera, Commersonia fraseri, Ripogonum album, Lomandra longifolia</t>
+  </si>
+  <si>
+    <t>Canopy height (m)</t>
+  </si>
+  <si>
+    <t>Vegetation structure</t>
+  </si>
+  <si>
+    <t>Site history</t>
+  </si>
+  <si>
+    <t>Adjacent smallhold grazing, unfenced, possible historic clearing</t>
+  </si>
+  <si>
+    <t>Undisturbed, within South East Forest National Park</t>
+  </si>
+  <si>
+    <t>Within Kosciuzko National Park. In recovery following 2003 fires.</t>
+  </si>
+  <si>
+    <t>Within Victoria State Forest, clearing for forestry was evident downstream.</t>
+  </si>
+  <si>
+    <t>Within Wadbilliga National Park. Mature forest, but historical clearing / pastoral land use possible.</t>
+  </si>
+  <si>
+    <t>Within Wadbilliga National Park. Mature forest with large emergents, but historical clearing / pastoral land usepossible.</t>
+  </si>
+  <si>
+    <t>Within Wadbilliga National Park. Mature riparian scrub vegetation, but historical clearing / pastoral land use possible.</t>
+  </si>
+  <si>
+    <t>Mature forest, some clearing adjacent to riparian corridor. Historical clearing / pastoral land use possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within Mann River Nature Reserve. Large flood occurred in 2011, historical clearing / pastoral land use is possible. </t>
+  </si>
+  <si>
+    <t>Within NSW conservation land, although opposite side of river was cleared pastoral land. Large flood occurred in 2011.</t>
+  </si>
+  <si>
+    <t>Within Kosciuzko National Park. Fire occurred in 2010.</t>
+  </si>
+  <si>
+    <t>Riparian scrub with emergent streamside Casuarina forest</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Riparian corridor remnant vegetation. Large emergent </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eucalyptus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> individuals (40-50 m tall) indicate relatively undisturbed condition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Riparian corridor remnant vegetation. Adjacent to Gunnarang State Conservation Area. Large (&gt;2m DBH) emergent </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lophostemon suaveolens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> individuals indicate relatively undisturbed condition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Undisturbed, evidenced by numerous large </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eucalyptus viminalis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> individuals adjacent to site</t>
+    </r>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Substrate</t>
+  </si>
+  <si>
+    <t>Soil loamy, rich with fine organic matter. Cobbles and bedrock form streambed.</t>
+  </si>
+  <si>
+    <t>Soil sandy, rich with fine organic matter. Streambed is sand.</t>
+  </si>
+  <si>
+    <t>Soil comprised of coarse sand. Streambed mostly cobbles.</t>
+  </si>
+  <si>
+    <t>Soil comprised of coarse sand. Streambed is sand.</t>
+  </si>
+  <si>
+    <t>Soil comprised of coarse sand. Cobbles and bedrock form streambed.</t>
+  </si>
+  <si>
+    <t>Soil loamy, rich with fine organic matter. Cobbles form streambed.</t>
+  </si>
+  <si>
+    <t>Soil sandy, rich with fine organic matter. Cobbles form streambed.</t>
+  </si>
+  <si>
+    <t>Soil sandy, with some organic matter. Streambed is sand.</t>
+  </si>
+  <si>
+    <t>Soil loamy with high silt content. Streambed is muddy.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Largely undisturbed, some evidence of fire. Within Alpine National Park. Very large emergent </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Eucalyptus viminalis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(&gt;2m DBH) present.</t>
+    </r>
+  </si>
+  <si>
+    <t>Maximum elevation of survey plot above thalweg (m)</t>
   </si>
 </sst>
 </file>
@@ -121,9 +399,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +411,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -185,10 +476,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -209,10 +501,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,6 +802,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -876,4 +1173,494 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="4" max="4" width="67" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>